--- a/AttribMatch.xlsx
+++ b/AttribMatch.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apurva\Conservation Games\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apurva\Conservation Games\MetaAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0AFBE7-A6C8-4583-80D1-3F05FEA698D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE3A244-FAD1-4876-8843-6246152CA8E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{884A7805-B085-4A4A-A54D-7A05A4F2DD24}"/>
   </bookViews>
@@ -4756,10 +4756,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5077,8 +5077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7A4548-6EB7-4FF9-99DE-E76742DEB60F}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="97" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5087,7 +5087,8 @@
     <col min="2" max="3" width="32.77734375" style="14" customWidth="1"/>
     <col min="4" max="4" width="32.6640625" style="14" customWidth="1"/>
     <col min="5" max="7" width="32.77734375" style="14" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="14"/>
+    <col min="8" max="8" width="8.88671875" style="14" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5913,7 +5914,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>1489</v>
       </c>
     </row>
@@ -6008,7 +6009,7 @@
       <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>1488</v>
       </c>
     </row>
@@ -6134,43 +6135,43 @@
       <c r="B1" s="10" t="s">
         <v>1201</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
       <c r="F1" s="10" t="s">
         <v>1201</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
       <c r="J1" s="10" t="s">
         <v>1201</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="21" t="s">
         <v>1033</v>
       </c>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
       <c r="N1" s="10" t="s">
         <v>1201</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
       <c r="R1" s="10" t="s">
         <v>1201</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="S1" s="21" t="s">
         <v>1034</v>
       </c>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
     </row>
     <row r="2" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
